--- a/A3/LCA_Advanced_BIM_to_Python_columns.xlsx
+++ b/A3/LCA_Advanced_BIM_to_Python_columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\BIManalyst_g_22\A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288947B-06A7-4304-B799-247E3D1AE2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B9438-940F-4A74-85B3-7F35BE6AD92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="585">
   <si>
     <t>Global Warming Potential GWP [kg CO² equ. /Bezugsgröße]</t>
   </si>
@@ -1876,72 +1876,6 @@
       </rPr>
       <t>-eq/Object</t>
     </r>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</t>
-  </si>
-  <si>
-    <t>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</t>
   </si>
 </sst>
 </file>
@@ -3437,6 +3371,75 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3502,75 +3505,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3722,7 +3656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3791,19 +3725,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>0.10403484546547308</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>1.0050487867433166E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-1.8593242250801627E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>114.08533333290625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3757,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3892,19 +3826,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>0.10980960435436239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>1.0608369641471996E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-1.9625314634633094E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>120.41797399583439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,7 +3858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3993,19 +3927,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>0.10113631783784524</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>9.7704699885719764E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-1.8075213641156492E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>110.90678782641722</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4025,7 +3959,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4094,19 +4028,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>0.1415819264264368</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>1.3677796390527347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-2.5303705163435566E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>155.25972281696414</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4126,7 +4060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4195,19 +4129,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>0.14945254375376471</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000">
-                  <c:v>1.4438152630819654E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>-2.6710352080395049E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>163.89069638458437</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5603,75 +5537,76 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>RESULTS!$A$14:$A$50</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -5718,8 +5653,8 @@
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5728,70 +5663,70 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>114.08533333290625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.41797399583439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.90678782641722</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.25972281696414</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163.89069638458437</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202.79120331400011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.06281468701118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>316.87653664690635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334.48078868284563</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150.95646120817898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>308.07441062893668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.118274135348315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.844727843246979</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.749783857252446</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.845486660836215</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.561464108281129</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.309679742515826</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.162556805609597</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.42795387786413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>144.00728464885663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.992761361260278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132.63828849236788</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -6739,75 +6674,76 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>RESULTS!$A$14:$A$50</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -6854,8 +6790,8 @@
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6864,70 +6800,70 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>20421.27466659022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11078.453607616764</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1109.0678782641724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15215.452836062486</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8522.3162119983881</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16426.087468434009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8134.3869581064255</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27568.258688280854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27761.905460676186</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1509.5646120817898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10474.529961383849</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.118274135348315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.844727843246979</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.749783857252446</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.845486660836215</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.561464108281129</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.30967974251584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.162556805609597</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.42795387786416</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>144.00728464885663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.992761361260293</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132.63828849236791</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -7299,19 +7235,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>2.9364722865639701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000">
-                  <c:v>0.19898870449405481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.0000">
-                  <c:v>0.18443641910515807</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3135.4609910580248</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9839,8 +9775,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -10164,32 +10100,24 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A14" s="137" t="s">
-        <v>585</v>
-      </c>
-      <c r="B14" s="139" t="s">
-        <v>562</v>
-      </c>
+      <c r="A14" s="137"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="133" t="str">
         <f>_xlfn.XLOOKUP($B14,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D14" s="140">
-        <v>0.46660000000000001</v>
-      </c>
-      <c r="E14" s="146">
-        <v>179</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D14" s="140"/>
+      <c r="E14" s="146"/>
       <c r="F14" s="141">
         <v>0</v>
       </c>
       <c r="G14" s="133" t="str">
         <f>_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H14" s="133">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>104.03484546547308</v>
+        <v>0</v>
       </c>
       <c r="I14" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10197,7 +10125,7 @@
       </c>
       <c r="J14" s="133">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>10.050487867433166</v>
+        <v>0</v>
       </c>
       <c r="K14" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10205,7 +10133,7 @@
       </c>
       <c r="L14" s="133">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-1.8593242250801627</v>
+        <v>0</v>
       </c>
       <c r="M14" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10213,40 +10141,32 @@
       </c>
       <c r="O14" s="156">
         <f>$D14*_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.31503863393816822</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="157">
         <f>_xlfn.XLOOKUP($C14,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A15" s="137" t="s">
-        <v>586</v>
-      </c>
-      <c r="B15" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A15" s="137"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="133" t="str">
         <f>_xlfn.XLOOKUP($B15,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D15" s="140">
-        <v>0.49249999999999999</v>
-      </c>
-      <c r="E15" s="146">
-        <v>92</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D15" s="140"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="141">
         <v>0</v>
       </c>
       <c r="G15" s="133" t="str">
         <f>_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H15" s="133">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>109.80960435436239</v>
+        <v>0</v>
       </c>
       <c r="I15" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10254,7 +10174,7 @@
       </c>
       <c r="J15" s="133">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>10.608369641471997</v>
+        <v>0</v>
       </c>
       <c r="K15" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10262,7 +10182,7 @@
       </c>
       <c r="L15" s="133">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-1.9625314634633093</v>
+        <v>0</v>
       </c>
       <c r="M15" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10270,40 +10190,32 @@
       </c>
       <c r="O15" s="156">
         <f>$D15*_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.33252577628492896</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="158">
         <f>_xlfn.XLOOKUP($C15,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A16" s="137" t="s">
-        <v>587</v>
-      </c>
-      <c r="B16" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A16" s="137"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="133" t="str">
         <f>_xlfn.XLOOKUP($B16,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D16" s="140">
-        <v>0.4536</v>
-      </c>
-      <c r="E16" s="146">
-        <v>10</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D16" s="140"/>
+      <c r="E16" s="146"/>
       <c r="F16" s="141">
         <v>0</v>
       </c>
       <c r="G16" s="133" t="str">
         <f>_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H16" s="133">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>101.13631783784524</v>
+        <v>0</v>
       </c>
       <c r="I16" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10311,7 +10223,7 @@
       </c>
       <c r="J16" s="133">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>9.7704699885719766</v>
+        <v>0</v>
       </c>
       <c r="K16" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10319,7 +10231,7 @@
       </c>
       <c r="L16" s="133">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-1.8075213641156491</v>
+        <v>0</v>
       </c>
       <c r="M16" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10327,40 +10239,32 @@
       </c>
       <c r="O16" s="156">
         <f>$D16*_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.30626130380272848</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="158">
         <f>_xlfn.XLOOKUP($C16,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A17" s="137" t="s">
-        <v>588</v>
-      </c>
-      <c r="B17" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A17" s="137"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="133" t="str">
         <f>_xlfn.XLOOKUP($B17,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D17" s="140">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E17" s="146">
-        <v>98</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D17" s="140"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="141">
         <v>0</v>
       </c>
       <c r="G17" s="133" t="str">
         <f>_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H17" s="133">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>141.58192642643681</v>
+        <v>0</v>
       </c>
       <c r="I17" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10368,7 +10272,7 @@
       </c>
       <c r="J17" s="133">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>13.677796390527348</v>
+        <v>0</v>
       </c>
       <c r="K17" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10376,7 +10280,7 @@
       </c>
       <c r="L17" s="133">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-2.5303705163435564</v>
+        <v>0</v>
       </c>
       <c r="M17" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10384,40 +10288,32 @@
       </c>
       <c r="O17" s="156">
         <f>$D17*_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.42873881815417236</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="158">
         <f>_xlfn.XLOOKUP($C17,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A18" s="137" t="s">
-        <v>589</v>
-      </c>
-      <c r="B18" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A18" s="137"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="133" t="str">
         <f>_xlfn.XLOOKUP($B18,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D18" s="140">
-        <v>0.67030000000000001</v>
-      </c>
-      <c r="E18" s="146">
-        <v>52</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D18" s="140"/>
+      <c r="E18" s="146"/>
       <c r="F18" s="141">
         <v>0</v>
       </c>
       <c r="G18" s="133" t="str">
         <f>_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H18" s="133">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>149.4525437537647</v>
+        <v>0</v>
       </c>
       <c r="I18" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10425,7 +10321,7 @@
       </c>
       <c r="J18" s="133">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>14.438152630819655</v>
+        <v>0</v>
       </c>
       <c r="K18" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10433,7 +10329,7 @@
       </c>
       <c r="L18" s="133">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-2.671035208039505</v>
+        <v>0</v>
       </c>
       <c r="M18" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10441,40 +10337,32 @@
       </c>
       <c r="O18" s="156">
         <f>$D18*_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.45257264536809722</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="158">
         <f>_xlfn.XLOOKUP($C18,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A19" s="137" t="s">
-        <v>590</v>
-      </c>
-      <c r="B19" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A19" s="137"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="133" t="str">
         <f>_xlfn.XLOOKUP($B19,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D19" s="140">
-        <v>0.82940000000000003</v>
-      </c>
-      <c r="E19" s="146">
-        <v>81</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="146"/>
       <c r="F19" s="141">
         <v>0</v>
       </c>
       <c r="G19" s="133" t="str">
         <f>_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H19" s="133">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>184.92606264265621</v>
+        <v>0</v>
       </c>
       <c r="I19" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10482,7 +10370,7 @@
       </c>
       <c r="J19" s="133">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>17.865140671343909</v>
+        <v>0</v>
       </c>
       <c r="K19" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10490,7 +10378,7 @@
       </c>
       <c r="L19" s="133">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-3.3050225295359774</v>
+        <v>0</v>
       </c>
       <c r="M19" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10498,40 +10386,32 @@
       </c>
       <c r="O19" s="156">
         <f>$D19*_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.55999366264105599</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="158">
         <f>_xlfn.XLOOKUP($C19,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A20" s="137" t="s">
-        <v>591</v>
-      </c>
-      <c r="B20" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A20" s="137"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="133" t="str">
         <f>_xlfn.XLOOKUP($B20,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D20" s="142">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="E20" s="146">
-        <v>38</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D20" s="142"/>
+      <c r="E20" s="146"/>
       <c r="F20" s="141">
         <v>0</v>
       </c>
       <c r="G20" s="133" t="str">
         <f>_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H20" s="133">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>195.20468753755182</v>
+        <v>0</v>
       </c>
       <c r="I20" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10539,7 +10419,7 @@
       </c>
       <c r="J20" s="133">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>18.858127149459357</v>
+        <v>0</v>
       </c>
       <c r="K20" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10547,7 +10427,7 @@
       </c>
       <c r="L20" s="133">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-3.4887234441870603</v>
+        <v>0</v>
       </c>
       <c r="M20" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10555,40 +10435,32 @@
       </c>
       <c r="O20" s="156">
         <f>$D20*_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.59111942565980768</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="158">
         <f>_xlfn.XLOOKUP($C20,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A21" s="137" t="s">
-        <v>592</v>
-      </c>
-      <c r="B21" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A21" s="137"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="133" t="str">
         <f>_xlfn.XLOOKUP($B21,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D21" s="142">
-        <v>1.296</v>
-      </c>
-      <c r="E21" s="146">
-        <v>87</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D21" s="142"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="141">
         <v>0</v>
       </c>
       <c r="G21" s="133" t="str">
         <f>_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H21" s="133">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>288.96090810812927</v>
+        <v>0</v>
       </c>
       <c r="I21" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10596,7 +10468,7 @@
       </c>
       <c r="J21" s="133">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>27.915628538777074</v>
+        <v>0</v>
       </c>
       <c r="K21" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10604,7 +10476,7 @@
       </c>
       <c r="L21" s="133">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-5.1643467546161403</v>
+        <v>0</v>
       </c>
       <c r="M21" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10612,40 +10484,32 @@
       </c>
       <c r="O21" s="156">
         <f>$D21*_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.87503229657922432</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="158">
         <f>_xlfn.XLOOKUP($C21,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A22" s="137" t="s">
-        <v>593</v>
-      </c>
-      <c r="B22" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A22" s="137"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="133" t="str">
         <f>_xlfn.XLOOKUP($B22,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D22" s="142">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="E22" s="146">
-        <v>83</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="142"/>
+      <c r="E22" s="146"/>
       <c r="F22" s="141">
         <v>0</v>
       </c>
       <c r="G22" s="133" t="str">
         <f>_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H22" s="133">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>305.01429189191424</v>
+        <v>0</v>
       </c>
       <c r="I22" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10653,7 +10517,7 @@
       </c>
       <c r="J22" s="133">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>29.466496790931359</v>
+        <v>0</v>
       </c>
       <c r="K22" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10661,7 +10525,7 @@
       </c>
       <c r="L22" s="133">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-5.4512549076503705</v>
+        <v>0</v>
       </c>
       <c r="M22" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10669,40 +10533,32 @@
       </c>
       <c r="O22" s="156">
         <f>$D22*_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.92364520194473676</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="158">
         <f>_xlfn.XLOOKUP($C22,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A23" s="137" t="s">
-        <v>594</v>
-      </c>
-      <c r="B23" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A23" s="137"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="133" t="str">
         <f>_xlfn.XLOOKUP($B23,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D23" s="142">
-        <v>0.61739999999999995</v>
-      </c>
-      <c r="E23" s="146">
-        <v>10</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="141">
         <v>0</v>
       </c>
       <c r="G23" s="133" t="str">
         <f>_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H23" s="133">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>137.65776594595602</v>
+        <v>0</v>
       </c>
       <c r="I23" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10710,7 +10566,7 @@
       </c>
       <c r="J23" s="133">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>13.298695262222965</v>
+        <v>0</v>
       </c>
       <c r="K23" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10718,7 +10574,7 @@
       </c>
       <c r="L23" s="133">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-2.4602374122685222</v>
+        <v>0</v>
       </c>
       <c r="M23" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10726,40 +10582,32 @@
       </c>
       <c r="O23" s="156">
         <f>$D23*_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.41685566350926928</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="158">
         <f>_xlfn.XLOOKUP($C23,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A24" s="137" t="s">
-        <v>595</v>
-      </c>
-      <c r="B24" s="135" t="s">
-        <v>562</v>
-      </c>
+      <c r="A24" s="137"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="133" t="str">
         <f>_xlfn.XLOOKUP($B24,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Ready-mix concrete C25/30</v>
-      </c>
-      <c r="D24" s="142">
-        <v>1.26</v>
-      </c>
-      <c r="E24" s="146">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="142"/>
+      <c r="E24" s="146"/>
       <c r="F24" s="141">
         <v>0</v>
       </c>
       <c r="G24" s="133" t="str">
         <f>_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>m3</v>
+        <v/>
       </c>
       <c r="H24" s="133">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>280.93421621623679</v>
+        <v>0</v>
       </c>
       <c r="I24" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10767,7 +10615,7 @@
       </c>
       <c r="J24" s="133">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>27.140194412699934</v>
+        <v>0</v>
       </c>
       <c r="K24" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10775,7 +10623,7 @@
       </c>
       <c r="L24" s="133">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>-5.0208926780990248</v>
+        <v>0</v>
       </c>
       <c r="M24" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10783,40 +10631,32 @@
       </c>
       <c r="O24" s="156">
         <f>$D24*_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.85072584389646799</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="158">
         <f>_xlfn.XLOOKUP($C24,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>2300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A25" s="137" t="s">
-        <v>596</v>
-      </c>
-      <c r="B25" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A25" s="137"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="133" t="str">
         <f>_xlfn.XLOOKUP($B25,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D25" s="142">
-        <v>79.322000000000003</v>
-      </c>
-      <c r="E25" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D25" s="142"/>
+      <c r="E25" s="146"/>
       <c r="F25" s="141">
         <v>0</v>
       </c>
       <c r="G25" s="133" t="str">
         <f>_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H25" s="133">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>48.81121824399095</v>
+        <v>0</v>
       </c>
       <c r="I25" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10824,7 +10664,7 @@
       </c>
       <c r="J25" s="133">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.30705589135736405</v>
+        <v>0</v>
       </c>
       <c r="K25" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10832,7 +10672,7 @@
       </c>
       <c r="L25" s="133">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>11.459408242177622</v>
+        <v>0</v>
       </c>
       <c r="M25" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10840,40 +10680,32 @@
       </c>
       <c r="O25" s="156">
         <f>$D25*_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.45715296696999341</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="158">
         <f>_xlfn.XLOOKUP($C25,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A26" s="137" t="s">
-        <v>597</v>
-      </c>
-      <c r="B26" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A26" s="137"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="133" t="str">
         <f>_xlfn.XLOOKUP($B26,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D26" s="142">
-        <v>83.724999999999994</v>
-      </c>
-      <c r="E26" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D26" s="142"/>
+      <c r="E26" s="146"/>
       <c r="F26" s="141">
         <v>0</v>
       </c>
       <c r="G26" s="133" t="str">
         <f>_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H26" s="133">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>51.520627915056878</v>
+        <v>0</v>
       </c>
       <c r="I26" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10881,7 +10713,7 @@
       </c>
       <c r="J26" s="133">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.32409992819010242</v>
+        <v>0</v>
       </c>
       <c r="K26" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10889,7 +10721,7 @@
       </c>
       <c r="L26" s="133">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>12.095496269336644</v>
+        <v>0</v>
       </c>
       <c r="M26" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10897,40 +10729,32 @@
       </c>
       <c r="O26" s="156">
         <f>$D26*_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.48252858172465007</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="158">
         <f>_xlfn.XLOOKUP($C26,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14" customHeight="1">
-      <c r="A27" s="137" t="s">
-        <v>598</v>
-      </c>
-      <c r="B27" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A27" s="137"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="133" t="str">
         <f>_xlfn.XLOOKUP($B27,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D27" s="142">
-        <v>77.111999999999995</v>
-      </c>
-      <c r="E27" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D27" s="142"/>
+      <c r="E27" s="146"/>
       <c r="F27" s="141">
         <v>0</v>
       </c>
       <c r="G27" s="133" t="str">
         <f>_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H27" s="133">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>47.45128288785746</v>
+        <v>0</v>
       </c>
       <c r="I27" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10938,7 +10762,7 @@
       </c>
       <c r="J27" s="133">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.29850096939498572</v>
+        <v>0</v>
       </c>
       <c r="K27" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10946,7 +10770,7 @@
       </c>
       <c r="L27" s="133">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>11.14013625943371</v>
+        <v>0</v>
       </c>
       <c r="M27" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10954,40 +10778,32 @@
       </c>
       <c r="O27" s="156">
         <f>$D27*_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.44441617191939348</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="158">
         <f>_xlfn.XLOOKUP($C27,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A28" s="137" t="s">
-        <v>599</v>
-      </c>
-      <c r="B28" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A28" s="137"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="133" t="str">
         <f>_xlfn.XLOOKUP($B28,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D28" s="142">
-        <v>107.95</v>
-      </c>
-      <c r="E28" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="142"/>
+      <c r="E28" s="146"/>
       <c r="F28" s="141">
         <v>0</v>
       </c>
       <c r="G28" s="133" t="str">
         <f>_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H28" s="133">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>66.427611626520047</v>
+        <v>0</v>
       </c>
       <c r="I28" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -10995,7 +10811,7 @@
       </c>
       <c r="J28" s="133">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.41787503431617273</v>
+        <v>0</v>
       </c>
       <c r="K28" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11003,7 +10819,7 @@
       </c>
       <c r="L28" s="133">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>15.595208387875674</v>
+        <v>0</v>
       </c>
       <c r="M28" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11011,40 +10827,32 @@
       </c>
       <c r="O28" s="156">
         <f>$D28*_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.62214345054853371</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="158">
         <f>_xlfn.XLOOKUP($C28,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A29" s="137" t="s">
-        <v>600</v>
-      </c>
-      <c r="B29" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A29" s="137"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="133" t="str">
         <f>_xlfn.XLOOKUP($B29,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D29" s="142">
-        <v>113.95100000000001</v>
-      </c>
-      <c r="E29" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="142"/>
+      <c r="E29" s="146"/>
       <c r="F29" s="141">
         <v>0</v>
       </c>
       <c r="G29" s="133" t="str">
         <f>_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H29" s="133">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>70.120359170482502</v>
+        <v>0</v>
       </c>
       <c r="I29" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11052,7 +10860,7 @@
       </c>
       <c r="J29" s="133">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.4411049377986308</v>
+        <v>0</v>
       </c>
       <c r="K29" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11060,7 +10868,7 @@
       </c>
       <c r="L29" s="133">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>16.462154617941835</v>
+        <v>0</v>
       </c>
       <c r="M29" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11068,40 +10876,32 @@
       </c>
       <c r="O29" s="156">
         <f>$D29*_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.65672874787823954</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="158">
         <f>_xlfn.XLOOKUP($C29,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A30" s="137" t="s">
-        <v>601</v>
-      </c>
-      <c r="B30" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A30" s="137"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="133" t="str">
         <f>_xlfn.XLOOKUP($B30,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D30" s="142">
-        <v>140.99799999999999</v>
-      </c>
-      <c r="E30" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D30" s="142"/>
+      <c r="E30" s="146"/>
       <c r="F30" s="141">
         <v>0</v>
       </c>
       <c r="G30" s="133" t="str">
         <f>_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H30" s="133">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>86.763875721316097</v>
+        <v>0</v>
       </c>
       <c r="I30" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11109,7 +10909,7 @@
       </c>
       <c r="J30" s="133">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.54580402119973792</v>
+        <v>0</v>
       </c>
       <c r="K30" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11117,7 +10917,7 @@
       </c>
       <c r="L30" s="133">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>20.369552499061548</v>
+        <v>0</v>
       </c>
       <c r="M30" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11125,40 +10925,32 @@
       </c>
       <c r="O30" s="156">
         <f>$D30*_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.81260752422827365</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="158">
         <f>_xlfn.XLOOKUP($C30,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A31" s="137" t="s">
-        <v>602</v>
-      </c>
-      <c r="B31" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A31" s="137"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="133" t="str">
         <f>_xlfn.XLOOKUP($B31,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D31" s="142">
-        <v>148.83499999999998</v>
-      </c>
-      <c r="E31" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D31" s="142"/>
+      <c r="E31" s="146"/>
       <c r="F31" s="141">
         <v>0</v>
       </c>
       <c r="G31" s="133" t="str">
         <f>_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H31" s="133">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>91.586415714989428</v>
+        <v>0</v>
       </c>
       <c r="I31" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11166,7 +10958,7 @@
       </c>
       <c r="J31" s="133">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.57614109062017194</v>
+        <v>0</v>
       </c>
       <c r="K31" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11174,7 +10966,7 @@
       </c>
       <c r="L31" s="133">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>21.501740068638032</v>
+        <v>0</v>
       </c>
       <c r="M31" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11182,40 +10974,32 @@
       </c>
       <c r="O31" s="156">
         <f>$D31*_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.85777415898463172</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="158">
         <f>_xlfn.XLOOKUP($C31,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.5">
-      <c r="A32" s="137" t="s">
-        <v>603</v>
-      </c>
-      <c r="B32" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A32" s="137"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="133" t="str">
         <f>_xlfn.XLOOKUP($B32,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D32" s="142">
-        <v>220.32</v>
-      </c>
-      <c r="E32" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D32" s="142"/>
+      <c r="E32" s="146"/>
       <c r="F32" s="141">
         <v>0</v>
       </c>
       <c r="G32" s="133" t="str">
         <f>_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H32" s="133">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>135.57509396530705</v>
+        <v>0</v>
       </c>
       <c r="I32" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11223,7 +11007,7 @@
       </c>
       <c r="J32" s="133">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.85285991255710203</v>
+        <v>0</v>
       </c>
       <c r="K32" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11231,7 +11015,7 @@
       </c>
       <c r="L32" s="133">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>31.828960741239172</v>
+        <v>0</v>
       </c>
       <c r="M32" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11239,40 +11023,32 @@
       </c>
       <c r="O32" s="156">
         <f>$D32*_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>1.2697604911982672</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="158">
         <f>_xlfn.XLOOKUP($C32,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.5">
-      <c r="A33" s="137" t="s">
-        <v>604</v>
-      </c>
-      <c r="B33" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A33" s="137"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="133" t="str">
         <f>_xlfn.XLOOKUP($B33,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D33" s="142">
-        <v>232.56000000000003</v>
-      </c>
-      <c r="E33" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="142"/>
+      <c r="E33" s="146"/>
       <c r="F33" s="141">
         <v>0</v>
       </c>
       <c r="G33" s="133" t="str">
         <f>_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H33" s="133">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>143.10704363004635</v>
+        <v>0</v>
       </c>
       <c r="I33" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11280,7 +11056,7 @@
       </c>
       <c r="J33" s="133">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.90024101881027452</v>
+        <v>0</v>
       </c>
       <c r="K33" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11288,7 +11064,7 @@
       </c>
       <c r="L33" s="133">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>33.597236337974685</v>
+        <v>0</v>
       </c>
       <c r="M33" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11296,40 +11072,32 @@
       </c>
       <c r="O33" s="156">
         <f>$D33*_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>1.3403027407092822</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="158">
         <f>_xlfn.XLOOKUP($C33,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.5">
-      <c r="A34" s="137" t="s">
-        <v>605</v>
-      </c>
-      <c r="B34" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A34" s="137"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="133" t="str">
         <f>_xlfn.XLOOKUP($B34,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D34" s="142">
-        <v>104.958</v>
-      </c>
-      <c r="E34" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="142"/>
+      <c r="E34" s="146"/>
       <c r="F34" s="141">
         <v>0</v>
       </c>
       <c r="G34" s="133" t="str">
         <f>_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H34" s="133">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>64.586468375139333</v>
+        <v>0</v>
       </c>
       <c r="I34" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11337,7 +11105,7 @@
       </c>
       <c r="J34" s="133">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.40629298612095277</v>
+        <v>0</v>
       </c>
       <c r="K34" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11345,7 +11113,7 @@
       </c>
       <c r="L34" s="133">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>15.162963242006994</v>
+        <v>0</v>
       </c>
       <c r="M34" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11353,41 +11121,33 @@
       </c>
       <c r="O34" s="156">
         <f>$D34*_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>0.60489978955695223</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="158">
         <f>_xlfn.XLOOKUP($C34,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22"/>
     </row>
     <row r="35" spans="1:18" ht="15.5">
-      <c r="A35" s="137" t="s">
-        <v>606</v>
-      </c>
-      <c r="B35" s="135" t="s">
-        <v>551</v>
-      </c>
+      <c r="A35" s="137"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="133" t="str">
         <f>_xlfn.XLOOKUP($B35,DATA!$B$6:$B$133,DATA!$C$6:$C$133,"")</f>
-        <v>Reinforcement steel wire</v>
-      </c>
-      <c r="D35" s="142">
-        <v>214.2</v>
-      </c>
-      <c r="E35" s="146">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D35" s="142"/>
+      <c r="E35" s="146"/>
       <c r="F35" s="141">
         <v>0</v>
       </c>
       <c r="G35" s="133" t="str">
         <f>_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$D$6:$D$133,"")</f>
-        <v>kg</v>
+        <v/>
       </c>
       <c r="H35" s="133">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$P$6:$P$133,0)</f>
-        <v>131.80911913293738</v>
+        <v>0</v>
       </c>
       <c r="I35" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11395,7 +11155,7 @@
       </c>
       <c r="J35" s="133">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$Z$6:$Z$133,0)</f>
-        <v>0.82916935943051584</v>
+        <v>0</v>
       </c>
       <c r="K35" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11403,7 +11163,7 @@
       </c>
       <c r="L35" s="133">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$X$6:$X$133,0)</f>
-        <v>30.944822942871415</v>
+        <v>0</v>
       </c>
       <c r="M35" s="134" t="str">
         <f>_xlfn.XLOOKUP($E$8,SCRIPT!$A$2:$A$11,SCRIPT!$C$2:$C$11)</f>
@@ -11412,11 +11172,11 @@
       <c r="N35" s="22"/>
       <c r="O35" s="156">
         <f>$D35*_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$AB$6:$AB$133,0)</f>
-        <v>1.2344893664427596</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="158">
         <f>_xlfn.XLOOKUP($C35,DATA!$C$6:$C$133,DATA!$G$6:$G$133,0)</f>
-        <v>7850</v>
+        <v>0</v>
       </c>
       <c r="R35" s="22"/>
     </row>
@@ -12670,7 +12430,7 @@
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="J13" sqref="J13"/>
@@ -12807,17 +12567,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A14" s="64" t="str">
+      <c r="A14" s="64">
         <f>Input!$A14</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B14" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A14,Input!H$14:H$60)/1000</f>
-        <v>0.10403484546547308</v>
+        <v>0</v>
       </c>
       <c r="C14" s="159">
         <f>Input!$E14*B14*1000</f>
-        <v>18622.237338319683</v>
+        <v>0</v>
       </c>
       <c r="D14" s="149">
         <v>0</v>
@@ -12827,50 +12587,50 @@
       </c>
       <c r="F14" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A14,Input!J$14:J$60)/1000</f>
-        <v>1.0050487867433166E-2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="159">
         <f>Input!$E14*F14*1000</f>
-        <v>1799.0373282705366</v>
+        <v>0</v>
       </c>
       <c r="H14" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A14,Input!L$14:L$60)/1000</f>
-        <v>-1.8593242250801627E-3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="159">
         <f>Input!$E14*H14*1000</f>
-        <v>-332.81903628934913</v>
+        <v>0</v>
       </c>
       <c r="J14" s="165">
         <f>(B14+D14+F14)*1000</f>
-        <v>114.08533333290625</v>
+        <v>0</v>
       </c>
       <c r="K14" s="164">
         <f t="shared" ref="K14:K29" si="0">C14+E14+G14</f>
-        <v>20421.27466659022</v>
+        <v>0</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A14,Input!O$14:O$32)/1000</f>
-        <v>3.150386339381682E-4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="155">
         <f>Input!$E14*M14*1000</f>
-        <v>56.391915474932105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A15" s="64" t="str">
+      <c r="A15" s="64">
         <f>Input!$A15</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B15" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A15,Input!H$14:H$60)/1000</f>
-        <v>0.10980960435436239</v>
+        <v>0</v>
       </c>
       <c r="C15" s="159">
         <f>Input!$E15*B15*1000</f>
-        <v>10102.483600601341</v>
+        <v>0</v>
       </c>
       <c r="D15" s="149">
         <v>0</v>
@@ -12880,50 +12640,50 @@
       </c>
       <c r="F15" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A15,Input!J$14:J$60)/1000</f>
-        <v>1.0608369641471996E-2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="159">
         <f>Input!$E15*F15*1000</f>
-        <v>975.97000701542368</v>
+        <v>0</v>
       </c>
       <c r="H15" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A15,Input!L$14:L$60)/1000</f>
-        <v>-1.9625314634633094E-3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="159">
         <f>Input!$E15*H15*1000</f>
-        <v>-180.55289463862445</v>
+        <v>0</v>
       </c>
       <c r="J15" s="165">
         <f t="shared" ref="J15:J50" si="1">(B15+D15+F15)*1000</f>
-        <v>120.41797399583439</v>
+        <v>0</v>
       </c>
       <c r="K15" s="164">
         <f t="shared" si="0"/>
-        <v>11078.453607616764</v>
+        <v>0</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A15,Input!O$14:O$32)/1000</f>
-        <v>3.3252577628492899E-4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="155">
         <f>Input!$E15*M15*1000</f>
-        <v>30.592371418213467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A16" s="64" t="str">
+      <c r="A16" s="64">
         <f>Input!$A16</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm - Concrete C25/30 (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B16" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A16,Input!H$14:H$60)/1000</f>
-        <v>0.10113631783784524</v>
+        <v>0</v>
       </c>
       <c r="C16" s="159">
         <f>Input!$E16*B16*1000</f>
-        <v>1011.3631783784525</v>
+        <v>0</v>
       </c>
       <c r="D16" s="149">
         <v>0</v>
@@ -12933,50 +12693,50 @@
       </c>
       <c r="F16" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A16,Input!J$14:J$60)/1000</f>
-        <v>9.7704699885719764E-3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="159">
         <f>Input!$E16*F16*1000</f>
-        <v>97.704699885719762</v>
+        <v>0</v>
       </c>
       <c r="H16" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A16,Input!L$14:L$60)/1000</f>
-        <v>-1.8075213641156492E-3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="159">
         <f>Input!$E16*H16*1000</f>
-        <v>-18.075213641156491</v>
+        <v>0</v>
       </c>
       <c r="J16" s="165">
         <f t="shared" si="1"/>
-        <v>110.90678782641722</v>
+        <v>0</v>
       </c>
       <c r="K16" s="164">
         <f t="shared" si="0"/>
-        <v>1109.0678782641724</v>
+        <v>0</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A16,Input!O$14:O$32)/1000</f>
-        <v>3.0626130380272847E-4</v>
+        <v>0</v>
       </c>
       <c r="N16" s="155">
         <f>Input!$E16*M16*1000</f>
-        <v>3.0626130380272851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A17" s="64" t="str">
+      <c r="A17" s="64">
         <f>Input!$A17</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B17" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A17,Input!H$14:H$60)/1000</f>
-        <v>0.1415819264264368</v>
+        <v>0</v>
       </c>
       <c r="C17" s="159">
         <f>Input!$E17*B17*1000</f>
-        <v>13875.028789790806</v>
+        <v>0</v>
       </c>
       <c r="D17" s="149">
         <v>0</v>
@@ -12986,50 +12746,50 @@
       </c>
       <c r="F17" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A17,Input!J$14:J$60)/1000</f>
-        <v>1.3677796390527347E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="159">
         <f>Input!$E17*F17*1000</f>
-        <v>1340.42404627168</v>
+        <v>0</v>
       </c>
       <c r="H17" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A17,Input!L$14:L$60)/1000</f>
-        <v>-2.5303705163435566E-3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="159">
         <f>Input!$E17*H17*1000</f>
-        <v>-247.97631060166856</v>
+        <v>0</v>
       </c>
       <c r="J17" s="165">
         <f t="shared" si="1"/>
-        <v>155.25972281696414</v>
+        <v>0</v>
       </c>
       <c r="K17" s="164">
         <f t="shared" si="0"/>
-        <v>15215.452836062486</v>
+        <v>0</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A17,Input!O$14:O$32)/1000</f>
-        <v>4.2873881815417235E-4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="155">
         <f>Input!$E17*M17*1000</f>
-        <v>42.016404179108889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A18" s="64" t="str">
+      <c r="A18" s="64">
         <f>Input!$A18</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B18" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A18,Input!H$14:H$60)/1000</f>
-        <v>0.14945254375376471</v>
+        <v>0</v>
       </c>
       <c r="C18" s="159">
         <f>Input!$E18*B18*1000</f>
-        <v>7771.5322751957656</v>
+        <v>0</v>
       </c>
       <c r="D18" s="149">
         <v>0</v>
@@ -13039,50 +12799,50 @@
       </c>
       <c r="F18" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A18,Input!J$14:J$60)/1000</f>
-        <v>1.4438152630819654E-2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="159">
         <f>Input!$E18*F18*1000</f>
-        <v>750.78393680262207</v>
+        <v>0</v>
       </c>
       <c r="H18" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A18,Input!L$14:L$60)/1000</f>
-        <v>-2.6710352080395049E-3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="159">
         <f>Input!$E18*H18*1000</f>
-        <v>-138.89383081805425</v>
+        <v>0</v>
       </c>
       <c r="J18" s="165">
         <f t="shared" si="1"/>
-        <v>163.89069638458437</v>
+        <v>0</v>
       </c>
       <c r="K18" s="164">
         <f t="shared" si="0"/>
-        <v>8522.3162119983881</v>
+        <v>0</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A18,Input!O$14:O$32)/1000</f>
-        <v>4.5257264536809722E-4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="155">
         <f>Input!$E18*M18*1000</f>
-        <v>23.533777559141054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A19" s="64" t="str">
+      <c r="A19" s="64">
         <f>Input!$A19</f>
-        <v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B19" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A19,Input!H$14:H$60)/1000</f>
-        <v>0.18492606264265621</v>
+        <v>0</v>
       </c>
       <c r="C19" s="159">
         <f>Input!$E19*B19*1000</f>
-        <v>14979.011074055154</v>
+        <v>0</v>
       </c>
       <c r="D19" s="149">
         <v>0</v>
@@ -13092,50 +12852,50 @@
       </c>
       <c r="F19" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A19,Input!J$14:J$60)/1000</f>
-        <v>1.7865140671343909E-2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="159">
         <f>Input!$E19*F19*1000</f>
-        <v>1447.0763943788568</v>
+        <v>0</v>
       </c>
       <c r="H19" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A19,Input!L$14:L$60)/1000</f>
-        <v>-3.3050225295359775E-3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="159">
         <f>Input!$E19*H19*1000</f>
-        <v>-267.70682489241415</v>
+        <v>0</v>
       </c>
       <c r="J19" s="165">
         <f t="shared" si="1"/>
-        <v>202.79120331400011</v>
+        <v>0</v>
       </c>
       <c r="K19" s="164">
         <f t="shared" si="0"/>
-        <v>16426.087468434009</v>
+        <v>0</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A19,Input!O$14:O$32)/1000</f>
-        <v>5.5999366264105602E-4</v>
+        <v>0</v>
       </c>
       <c r="N19" s="155">
         <f>Input!$E19*M19*1000</f>
-        <v>45.359486673925538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A20" s="64" t="str">
+      <c r="A20" s="64">
         <f>Input!$A20</f>
-        <v>Square Column:STR - Concrete Column - 480x480mm - Concrete C25/30 (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B20" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A20,Input!H$14:H$60)/1000</f>
-        <v>0.19520468753755182</v>
+        <v>0</v>
       </c>
       <c r="C20" s="159">
         <f>Input!$E20*B20*1000</f>
-        <v>7417.7781264269697</v>
+        <v>0</v>
       </c>
       <c r="D20" s="149">
         <v>0</v>
@@ -13145,50 +12905,50 @@
       </c>
       <c r="F20" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A20,Input!J$14:J$60)/1000</f>
-        <v>1.8858127149459357E-2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="159">
         <f>Input!$E20*F20*1000</f>
-        <v>716.60883167945553</v>
+        <v>0</v>
       </c>
       <c r="H20" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A20,Input!L$14:L$60)/1000</f>
-        <v>-3.4887234441870604E-3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="159">
         <f>Input!$E20*H20*1000</f>
-        <v>-132.5714908791083</v>
+        <v>0</v>
       </c>
       <c r="J20" s="165">
         <f t="shared" si="1"/>
-        <v>214.06281468701118</v>
+        <v>0</v>
       </c>
       <c r="K20" s="164">
         <f t="shared" si="0"/>
-        <v>8134.3869581064255</v>
+        <v>0</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A20,Input!O$14:O$32)/1000</f>
-        <v>5.9111942565980772E-4</v>
+        <v>0</v>
       </c>
       <c r="N20" s="155">
         <f>Input!$E20*M20*1000</f>
-        <v>22.462538175072694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A21" s="64" t="str">
+      <c r="A21" s="64">
         <f>Input!$A21</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B21" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A21,Input!H$14:H$60)/1000</f>
-        <v>0.2889609081081293</v>
+        <v>0</v>
       </c>
       <c r="C21" s="159">
         <f>Input!$E21*B21*1000</f>
-        <v>25139.59900540725</v>
+        <v>0</v>
       </c>
       <c r="D21" s="149">
         <v>0</v>
@@ -13198,50 +12958,50 @@
       </c>
       <c r="F21" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A21,Input!J$14:J$60)/1000</f>
-        <v>2.7915628538777073E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="159">
         <f>Input!$E21*F21*1000</f>
-        <v>2428.6596828736056</v>
+        <v>0</v>
       </c>
       <c r="H21" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A21,Input!L$14:L$60)/1000</f>
-        <v>-5.1643467546161406E-3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="159">
         <f>Input!$E21*H21*1000</f>
-        <v>-449.29816765160422</v>
+        <v>0</v>
       </c>
       <c r="J21" s="165">
         <f t="shared" si="1"/>
-        <v>316.87653664690635</v>
+        <v>0</v>
       </c>
       <c r="K21" s="164">
         <f t="shared" si="0"/>
-        <v>27568.258688280854</v>
+        <v>0</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A21,Input!O$14:O$32)/1000</f>
-        <v>8.7503229657922438E-4</v>
+        <v>0</v>
       </c>
       <c r="N21" s="155">
         <f>Input!$E21*M21*1000</f>
-        <v>76.12780980239252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A22" s="64" t="str">
+      <c r="A22" s="64">
         <f>Input!$A22</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B22" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A22,Input!H$14:H$60)/1000</f>
-        <v>0.30501429189191426</v>
+        <v>0</v>
       </c>
       <c r="C22" s="159">
         <f>Input!$E22*B22*1000</f>
-        <v>25316.186227028884</v>
+        <v>0</v>
       </c>
       <c r="D22" s="149">
         <v>0</v>
@@ -13251,50 +13011,50 @@
       </c>
       <c r="F22" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A22,Input!J$14:J$60)/1000</f>
-        <v>2.946649679093136E-2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="159">
         <f>Input!$E22*F22*1000</f>
-        <v>2445.7192336473026</v>
+        <v>0</v>
       </c>
       <c r="H22" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A22,Input!L$14:L$60)/1000</f>
-        <v>-5.4512549076503707E-3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="159">
         <f>Input!$E22*H22*1000</f>
-        <v>-452.45415733498078</v>
+        <v>0</v>
       </c>
       <c r="J22" s="165">
         <f t="shared" si="1"/>
-        <v>334.48078868284563</v>
+        <v>0</v>
       </c>
       <c r="K22" s="164">
         <f t="shared" si="0"/>
-        <v>27761.905460676186</v>
+        <v>0</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A22,Input!O$14:O$32)/1000</f>
-        <v>9.2364520194473671E-4</v>
+        <v>0</v>
       </c>
       <c r="N22" s="155">
         <f>Input!$E22*M22*1000</f>
-        <v>76.662551761413155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A23" s="64" t="str">
+      <c r="A23" s="64">
         <f>Input!$A23</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm - Concrete C25/30 (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B23" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A23,Input!H$14:H$60)/1000</f>
-        <v>0.13765776594595602</v>
+        <v>0</v>
       </c>
       <c r="C23" s="159">
         <f>Input!$E23*B23*1000</f>
-        <v>1376.5776594595602</v>
+        <v>0</v>
       </c>
       <c r="D23" s="149">
         <v>0</v>
@@ -13304,50 +13064,50 @@
       </c>
       <c r="F23" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A23,Input!J$14:J$60)/1000</f>
-        <v>1.3298695262222965E-2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="159">
         <f>Input!$E23*F23*1000</f>
-        <v>132.98695262222964</v>
+        <v>0</v>
       </c>
       <c r="H23" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A23,Input!L$14:L$60)/1000</f>
-        <v>-2.4602374122685224E-3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="159">
         <f>Input!$E23*H23*1000</f>
-        <v>-24.602374122685223</v>
+        <v>0</v>
       </c>
       <c r="J23" s="165">
         <f t="shared" si="1"/>
-        <v>150.95646120817898</v>
+        <v>0</v>
       </c>
       <c r="K23" s="164">
         <f t="shared" si="0"/>
-        <v>1509.5646120817898</v>
+        <v>0</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A23,Input!O$14:O$32)/1000</f>
-        <v>4.1685566350926928E-4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="155">
         <f>Input!$E23*M23*1000</f>
-        <v>4.1685566350926919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A24" s="64" t="str">
+      <c r="A24" s="64">
         <f>Input!$A24</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm - Concrete C25/30 (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B24" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A24,Input!H$14:H$60)/1000</f>
-        <v>0.28093421621623677</v>
+        <v>0</v>
       </c>
       <c r="C24" s="159">
         <f>Input!$E24*B24*1000</f>
-        <v>9551.7633513520504</v>
+        <v>0</v>
       </c>
       <c r="D24" s="149">
         <v>0</v>
@@ -13357,50 +13117,50 @@
       </c>
       <c r="F24" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A24,Input!J$14:J$60)/1000</f>
-        <v>2.7140194412699933E-2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="159">
         <f>Input!$E24*F24*1000</f>
-        <v>922.76661003179777</v>
+        <v>0</v>
       </c>
       <c r="H24" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A24,Input!L$14:L$60)/1000</f>
-        <v>-5.0208926780990247E-3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="159">
         <f>Input!$E24*H24*1000</f>
-        <v>-170.71035105536683</v>
+        <v>0</v>
       </c>
       <c r="J24" s="165">
         <f t="shared" si="1"/>
-        <v>308.07441062893668</v>
+        <v>0</v>
       </c>
       <c r="K24" s="164">
         <f t="shared" si="0"/>
-        <v>10474.529961383849</v>
+        <v>0</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A24,Input!O$14:O$32)/1000</f>
-        <v>8.5072584389646799E-4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="155">
         <f>Input!$E24*M24*1000</f>
-        <v>28.924678692479912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A25" s="64" t="str">
+      <c r="A25" s="64">
         <f>Input!$A25</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B25" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A25,Input!H$14:H$60)/1000</f>
-        <v>4.8811218243990949E-2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="159">
         <f>Input!$E25*B25*1000</f>
-        <v>48.81121824399095</v>
+        <v>0</v>
       </c>
       <c r="D25" s="149">
         <v>0</v>
@@ -13410,50 +13170,50 @@
       </c>
       <c r="F25" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A25,Input!J$14:J$60)/1000</f>
-        <v>3.0705589135736404E-4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="159">
         <f>Input!$E25*F25*1000</f>
-        <v>0.30705589135736405</v>
+        <v>0</v>
       </c>
       <c r="H25" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A25,Input!L$14:L$60)/1000</f>
-        <v>1.1459408242177622E-2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="159">
         <f>Input!$E25*H25*1000</f>
-        <v>11.459408242177622</v>
+        <v>0</v>
       </c>
       <c r="J25" s="165">
         <f t="shared" si="1"/>
-        <v>49.118274135348315</v>
+        <v>0</v>
       </c>
       <c r="K25" s="164">
         <f t="shared" si="0"/>
-        <v>49.118274135348315</v>
+        <v>0</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A25,Input!O$14:O$32)/1000</f>
-        <v>4.5715296696999339E-4</v>
+        <v>0</v>
       </c>
       <c r="N25" s="155">
         <f>Input!$E25*M25*1000</f>
-        <v>0.45715296696999341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A26" s="64" t="str">
+      <c r="A26" s="64">
         <f>Input!$A26</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B26" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A26,Input!H$14:H$60)/1000</f>
-        <v>5.1520627915056877E-2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="159">
         <f>Input!$E26*B26*1000</f>
-        <v>51.520627915056878</v>
+        <v>0</v>
       </c>
       <c r="D26" s="149">
         <v>0</v>
@@ -13463,50 +13223,50 @@
       </c>
       <c r="F26" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A26,Input!J$14:J$60)/1000</f>
-        <v>3.2409992819010242E-4</v>
+        <v>0</v>
       </c>
       <c r="G26" s="159">
         <f>Input!$E26*F26*1000</f>
-        <v>0.32409992819010242</v>
+        <v>0</v>
       </c>
       <c r="H26" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A26,Input!L$14:L$60)/1000</f>
-        <v>1.2095496269336644E-2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="159">
         <f>Input!$E26*H26*1000</f>
-        <v>12.095496269336644</v>
+        <v>0</v>
       </c>
       <c r="J26" s="165">
         <f t="shared" si="1"/>
-        <v>51.844727843246979</v>
+        <v>0</v>
       </c>
       <c r="K26" s="164">
         <f t="shared" si="0"/>
-        <v>51.844727843246979</v>
+        <v>0</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A26,Input!O$14:O$32)/1000</f>
-        <v>4.8252858172465008E-4</v>
+        <v>0</v>
       </c>
       <c r="N26" s="155">
         <f>Input!$E26*M26*1000</f>
-        <v>0.48252858172465007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A27" s="64" t="str">
+      <c r="A27" s="64">
         <f>Input!$A27</f>
-        <v>Square Column:STR - Concrete Column - 360x360mm_Reinforcement - Reinforcement (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B27" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A27,Input!H$14:H$60)/1000</f>
-        <v>4.7451282887857459E-2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="159">
         <f>Input!$E27*B27*1000</f>
-        <v>47.45128288785746</v>
+        <v>0</v>
       </c>
       <c r="D27" s="149">
         <v>0</v>
@@ -13516,50 +13276,50 @@
       </c>
       <c r="F27" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A27,Input!J$14:J$60)/1000</f>
-        <v>2.9850096939498572E-4</v>
+        <v>0</v>
       </c>
       <c r="G27" s="159">
         <f>Input!$E27*F27*1000</f>
-        <v>0.29850096939498572</v>
+        <v>0</v>
       </c>
       <c r="H27" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A27,Input!L$14:L$60)/1000</f>
-        <v>1.1140136259433711E-2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="159">
         <f>Input!$E27*H27*1000</f>
-        <v>11.14013625943371</v>
+        <v>0</v>
       </c>
       <c r="J27" s="165">
         <f t="shared" si="1"/>
-        <v>47.749783857252446</v>
+        <v>0</v>
       </c>
       <c r="K27" s="164">
         <f t="shared" si="0"/>
-        <v>47.749783857252446</v>
+        <v>0</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A27,Input!O$14:O$32)/1000</f>
-        <v>4.4441617191939348E-4</v>
+        <v>0</v>
       </c>
       <c r="N27" s="155">
         <f>Input!$E27*M27*1000</f>
-        <v>0.44441617191939348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A28" s="64" t="str">
+      <c r="A28" s="64">
         <f>Input!$A28</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B28" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A28,Input!H$14:H$60)/1000</f>
-        <v>6.6427611626520042E-2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="159">
         <f>Input!$E28*B28*1000</f>
-        <v>66.427611626520047</v>
+        <v>0</v>
       </c>
       <c r="D28" s="149">
         <v>0</v>
@@ -13569,50 +13329,50 @@
       </c>
       <c r="F28" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A28,Input!J$14:J$60)/1000</f>
-        <v>4.1787503431617274E-4</v>
+        <v>0</v>
       </c>
       <c r="G28" s="159">
         <f>Input!$E28*F28*1000</f>
-        <v>0.41787503431617273</v>
+        <v>0</v>
       </c>
       <c r="H28" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A28,Input!L$14:L$60)/1000</f>
-        <v>1.5595208387875674E-2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="159">
         <f>Input!$E28*H28*1000</f>
-        <v>15.595208387875674</v>
+        <v>0</v>
       </c>
       <c r="J28" s="165">
         <f t="shared" si="1"/>
-        <v>66.845486660836215</v>
+        <v>0</v>
       </c>
       <c r="K28" s="164">
         <f t="shared" si="0"/>
-        <v>66.845486660836215</v>
+        <v>0</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A28,Input!O$14:O$32)/1000</f>
-        <v>6.2214345054853373E-4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="155">
         <f>Input!$E28*M28*1000</f>
-        <v>0.62214345054853371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A29" s="64" t="str">
+      <c r="A29" s="64">
         <f>Input!$A29</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B29" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A29,Input!H$14:H$60)/1000</f>
-        <v>7.0120359170482496E-2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="159">
         <f>Input!$E29*B29*1000</f>
-        <v>70.120359170482502</v>
+        <v>0</v>
       </c>
       <c r="D29" s="149">
         <v>0</v>
@@ -13622,50 +13382,50 @@
       </c>
       <c r="F29" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A29,Input!J$14:J$60)/1000</f>
-        <v>4.4110493779863079E-4</v>
+        <v>0</v>
       </c>
       <c r="G29" s="159">
         <f>Input!$E29*F29*1000</f>
-        <v>0.4411049377986308</v>
+        <v>0</v>
       </c>
       <c r="H29" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A29,Input!L$14:L$60)/1000</f>
-        <v>1.6462154617941836E-2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="159">
         <f>Input!$E29*H29*1000</f>
-        <v>16.462154617941835</v>
+        <v>0</v>
       </c>
       <c r="J29" s="165">
         <f t="shared" si="1"/>
-        <v>70.561464108281129</v>
+        <v>0</v>
       </c>
       <c r="K29" s="164">
         <f t="shared" si="0"/>
-        <v>70.561464108281129</v>
+        <v>0</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A29,Input!O$14:O$32)/1000</f>
-        <v>6.5672874787823957E-4</v>
+        <v>0</v>
       </c>
       <c r="N29" s="155">
         <f>Input!$E29*M29*1000</f>
-        <v>0.65672874787823954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A30" s="64" t="str">
+      <c r="A30" s="64">
         <f>Input!$A30</f>
-        <v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B30" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A30,Input!H$14:H$60)/1000</f>
-        <v>8.6763875721316094E-2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="159">
         <f>Input!$E30*B30*1000</f>
-        <v>86.763875721316097</v>
+        <v>0</v>
       </c>
       <c r="D30" s="149">
         <v>0</v>
@@ -13675,50 +13435,50 @@
       </c>
       <c r="F30" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A30,Input!J$14:J$60)/1000</f>
-        <v>5.4580402119973792E-4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="159">
         <f>Input!$E30*F30*1000</f>
-        <v>0.54580402119973792</v>
+        <v>0</v>
       </c>
       <c r="H30" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A30,Input!L$14:L$60)/1000</f>
-        <v>2.0369552499061548E-2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="159">
         <f>Input!$E30*H30*1000</f>
-        <v>20.369552499061548</v>
+        <v>0</v>
       </c>
       <c r="J30" s="165">
         <f t="shared" si="1"/>
-        <v>87.309679742515826</v>
+        <v>0</v>
       </c>
       <c r="K30" s="164">
         <f t="shared" ref="K30:K50" si="2">C30+E30+G30</f>
-        <v>87.30967974251584</v>
+        <v>0</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A30,Input!O$14:O$32)/1000</f>
-        <v>8.1260752422827366E-4</v>
+        <v>0</v>
       </c>
       <c r="N30" s="155">
         <f>Input!$E30*M30*1000</f>
-        <v>0.81260752422827365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A31" s="64" t="str">
+      <c r="A31" s="64">
         <f>Input!$A31</f>
-        <v>Square Column:STR - Concrete Column - 480x480mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B31" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A31,Input!H$14:H$60)/1000</f>
-        <v>9.1586415714989433E-2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="159">
         <f>Input!$E31*B31*1000</f>
-        <v>91.586415714989428</v>
+        <v>0</v>
       </c>
       <c r="D31" s="149">
         <v>0</v>
@@ -13728,50 +13488,50 @@
       </c>
       <c r="F31" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A31,Input!J$14:J$60)/1000</f>
-        <v>5.7614109062017191E-4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="159">
         <f>Input!$E31*F31*1000</f>
-        <v>0.57614109062017194</v>
+        <v>0</v>
       </c>
       <c r="H31" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A31,Input!L$14:L$60)/1000</f>
-        <v>2.1501740068638031E-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="159">
         <f>Input!$E31*H31*1000</f>
-        <v>21.501740068638032</v>
+        <v>0</v>
       </c>
       <c r="J31" s="165">
         <f t="shared" si="1"/>
-        <v>92.162556805609597</v>
+        <v>0</v>
       </c>
       <c r="K31" s="164">
         <f t="shared" si="2"/>
-        <v>92.162556805609597</v>
+        <v>0</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A31,Input!O$14:O$32)/1000</f>
-        <v>8.5777415898463172E-4</v>
+        <v>0</v>
       </c>
       <c r="N31" s="155">
         <f>Input!$E31*M31*1000</f>
-        <v>0.85777415898463172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A32" s="64" t="str">
+      <c r="A32" s="64">
         <f>Input!$A32</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.6m)</v>
+        <v>0</v>
       </c>
       <c r="B32" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A32,Input!H$14:H$60)/1000</f>
-        <v>0.13557509396530704</v>
+        <v>0</v>
       </c>
       <c r="C32" s="159">
         <f>Input!$E32*B32*1000</f>
-        <v>135.57509396530705</v>
+        <v>0</v>
       </c>
       <c r="D32" s="149">
         <v>0</v>
@@ -13781,50 +13541,50 @@
       </c>
       <c r="F32" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A32,Input!J$14:J$60)/1000</f>
-        <v>8.5285991255710202E-4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="159">
         <f>Input!$E32*F32*1000</f>
-        <v>0.85285991255710203</v>
+        <v>0</v>
       </c>
       <c r="H32" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A32,Input!L$14:L$60)/1000</f>
-        <v>3.1828960741239171E-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="159">
         <f>Input!$E32*H32*1000</f>
-        <v>31.828960741239172</v>
+        <v>0</v>
       </c>
       <c r="J32" s="165">
         <f t="shared" si="1"/>
-        <v>136.42795387786413</v>
+        <v>0</v>
       </c>
       <c r="K32" s="164">
         <f t="shared" si="2"/>
-        <v>136.42795387786416</v>
+        <v>0</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="143">
         <f>SUMIF(Input!$A$14:$A$32,RESULTS!$A32,Input!O$14:O$32)/1000</f>
-        <v>1.2697604911982672E-3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="155">
         <f>Input!$E32*M32*1000</f>
-        <v>1.2697604911982672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A33" s="64" t="str">
+      <c r="A33" s="64">
         <f>Input!$A33</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.8m)</v>
+        <v>0</v>
       </c>
       <c r="B33" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A33,Input!H$14:H$60)/1000</f>
-        <v>0.14310704363004634</v>
+        <v>0</v>
       </c>
       <c r="C33" s="159">
         <f>Input!$E33*B33*1000</f>
-        <v>143.10704363004635</v>
+        <v>0</v>
       </c>
       <c r="D33" s="149">
         <v>0</v>
@@ -13834,27 +13594,27 @@
       </c>
       <c r="F33" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A33,Input!J$14:J$60)/1000</f>
-        <v>9.0024101881027449E-4</v>
+        <v>0</v>
       </c>
       <c r="G33" s="159">
         <f>Input!$E33*F33*1000</f>
-        <v>0.90024101881027452</v>
+        <v>0</v>
       </c>
       <c r="H33" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A33,Input!L$14:L$60)/1000</f>
-        <v>3.3597236337974686E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="159">
         <f>Input!$E33*H33*1000</f>
-        <v>33.597236337974685</v>
+        <v>0</v>
       </c>
       <c r="J33" s="165">
         <f t="shared" si="1"/>
-        <v>144.00728464885663</v>
+        <v>0</v>
       </c>
       <c r="K33" s="164">
         <f t="shared" si="2"/>
-        <v>144.00728464885663</v>
+        <v>0</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="143">
@@ -13867,17 +13627,17 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A34" s="64" t="str">
+      <c r="A34" s="64">
         <f>Input!$A34</f>
-        <v>Square Column:STR - Concrete Column - 420x420mm_Reinforcement - Reinforcement (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B34" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A34,Input!H$14:H$60)/1000</f>
-        <v>6.458646837513933E-2</v>
+        <v>0</v>
       </c>
       <c r="C34" s="159">
         <f>Input!$E34*B34*1000</f>
-        <v>64.586468375139333</v>
+        <v>0</v>
       </c>
       <c r="D34" s="149">
         <v>0</v>
@@ -13887,27 +13647,27 @@
       </c>
       <c r="F34" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A34,Input!J$14:J$60)/1000</f>
-        <v>4.0629298612095279E-4</v>
+        <v>0</v>
       </c>
       <c r="G34" s="159">
         <f>Input!$E34*F34*1000</f>
-        <v>0.40629298612095277</v>
+        <v>0</v>
       </c>
       <c r="H34" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A34,Input!L$14:L$60)/1000</f>
-        <v>1.5162963242006994E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="159">
         <f>Input!$E34*H34*1000</f>
-        <v>15.162963242006994</v>
+        <v>0</v>
       </c>
       <c r="J34" s="165">
         <f t="shared" si="1"/>
-        <v>64.992761361260278</v>
+        <v>0</v>
       </c>
       <c r="K34" s="164">
         <f t="shared" si="2"/>
-        <v>64.992761361260293</v>
+        <v>0</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="143">
@@ -13920,17 +13680,17 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.5" thickBot="1">
-      <c r="A35" s="64" t="str">
+      <c r="A35" s="64">
         <f>Input!$A35</f>
-        <v>Square Column:STR - Concrete Column - 600x600mm_Reinforcement - Reinforcement (Height: 3.5m)</v>
+        <v>0</v>
       </c>
       <c r="B35" s="162">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A35,Input!H$14:H$60)/1000</f>
-        <v>0.13180911913293739</v>
+        <v>0</v>
       </c>
       <c r="C35" s="159">
         <f>Input!$E35*B35*1000</f>
-        <v>131.80911913293738</v>
+        <v>0</v>
       </c>
       <c r="D35" s="149">
         <v>0</v>
@@ -13940,27 +13700,27 @@
       </c>
       <c r="F35" s="161">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A35,Input!J$14:J$60)/1000</f>
-        <v>8.2916935943051588E-4</v>
+        <v>0</v>
       </c>
       <c r="G35" s="159">
         <f>Input!$E35*F35*1000</f>
-        <v>0.82916935943051584</v>
+        <v>0</v>
       </c>
       <c r="H35" s="160">
         <f>SUMIF(Input!$A$14:$A$60,RESULTS!$A35,Input!L$14:L$60)/1000</f>
-        <v>3.0944822942871417E-2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="159">
         <f>Input!$E35*H35*1000</f>
-        <v>30.944822942871415</v>
+        <v>0</v>
       </c>
       <c r="J35" s="165">
         <f t="shared" si="1"/>
-        <v>132.63828849236788</v>
+        <v>0</v>
       </c>
       <c r="K35" s="164">
         <f t="shared" si="2"/>
-        <v>132.63828849236791</v>
+        <v>0</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="143">
@@ -14773,11 +14533,11 @@
       </c>
       <c r="B51" s="163">
         <f>SUM(B14:B50)</f>
-        <v>2.9364722865639701</v>
+        <v>0</v>
       </c>
       <c r="C51" s="117">
         <f>SUM(C14:C50)</f>
-        <v>136101.31974239953</v>
+        <v>0</v>
       </c>
       <c r="D51" s="151">
         <f t="shared" ref="D51" si="3">SUM(D14:D50)</f>
@@ -14788,36 +14548,36 @@
       </c>
       <c r="F51" s="145">
         <f t="shared" ref="F51" si="4">SUM(F14:F50)</f>
-        <v>0.19898870449405481</v>
+        <v>0</v>
       </c>
       <c r="G51" s="117">
         <f>SUM(G14:G50)</f>
-        <v>13063.636868629026</v>
+        <v>0</v>
       </c>
       <c r="H51" s="145">
         <f t="shared" ref="H51" si="5">SUM(H14:H50)</f>
-        <v>0.18443641910515807</v>
+        <v>0</v>
       </c>
       <c r="I51" s="117">
         <f>SUM(I14:I50)</f>
-        <v>-2195.5029723164548</v>
+        <v>0</v>
       </c>
       <c r="J51" s="20">
         <f>SUM(J14:J50)</f>
-        <v>3135.4609910580248</v>
+        <v>0</v>
       </c>
       <c r="K51" s="117">
         <f>SUM(K14:K50)</f>
-        <v>149164.95661102861</v>
+        <v>0</v>
       </c>
       <c r="L51" s="21"/>
       <c r="M51" s="144">
         <f>SUM(M14:M50)</f>
-        <v>1.1655621365230641E-2</v>
+        <v>0</v>
       </c>
       <c r="N51" s="118">
         <f>SUM(N14:N50)</f>
-        <v>414.90581550325123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14">
@@ -14947,21 +14707,21 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="203" t="s">
+      <c r="M2" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="226" t="s">
         <v>1</v>
       </c>
       <c r="Z2" s="40"/>
@@ -14970,73 +14730,73 @@
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="16"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="236"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="43"/>
-      <c r="M3" s="206" t="s">
+      <c r="M3" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209" t="s">
+      <c r="N3" s="230"/>
+      <c r="O3" s="230"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="230"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="212" t="s">
+      <c r="U3" s="233"/>
+      <c r="V3" s="233"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="204"/>
+      <c r="Y3" s="227"/>
       <c r="Z3" s="37"/>
-      <c r="AA3" s="232" t="s">
+      <c r="AA3" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="232" t="s">
+      <c r="AB3" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="224" t="s">
+      <c r="AD3" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="226" t="s">
+      <c r="AE3" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="226" t="s">
+      <c r="AF3" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="226" t="s">
+      <c r="AG3" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="222" t="s">
+      <c r="AH3" s="217" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="237" t="s">
+      <c r="B4" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="239" t="s">
+      <c r="D4" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="213" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="105" t="s">
@@ -15045,70 +14805,70 @@
       <c r="G4" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="229" t="s">
+      <c r="H4" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="230" t="s">
+      <c r="I4" s="202" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
-      <c r="L4" s="231" t="s">
+      <c r="L4" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="214" t="s">
+      <c r="M4" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="216"/>
-      <c r="Q4" s="217" t="s">
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="218"/>
-      <c r="S4" s="219" t="s">
+      <c r="R4" s="241"/>
+      <c r="S4" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="221" t="s">
+      <c r="T4" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="218"/>
-      <c r="V4" s="217" t="s">
+      <c r="U4" s="241"/>
+      <c r="V4" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="218"/>
-      <c r="X4" s="213"/>
-      <c r="Y4" s="205"/>
+      <c r="W4" s="241"/>
+      <c r="X4" s="236"/>
+      <c r="Y4" s="228"/>
       <c r="Z4" s="44"/>
-      <c r="AA4" s="233"/>
-      <c r="AB4" s="233"/>
-      <c r="AD4" s="225"/>
-      <c r="AE4" s="227"/>
-      <c r="AF4" s="227"/>
-      <c r="AG4" s="227"/>
-      <c r="AH4" s="223"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="205"/>
+      <c r="AD4" s="220"/>
+      <c r="AE4" s="222"/>
+      <c r="AF4" s="222"/>
+      <c r="AG4" s="222"/>
+      <c r="AH4" s="218"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="228"/>
-      <c r="B5" s="238"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="242"/>
+      <c r="A5" s="200"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="214"/>
       <c r="F5" s="109" t="s">
         <v>218</v>
       </c>
       <c r="G5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="229"/>
-      <c r="I5" s="230"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="45" t="s">
         <v>48</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="231"/>
+      <c r="L5" s="203"/>
       <c r="M5" s="47" t="s">
         <v>13</v>
       </c>
@@ -15127,7 +14887,7 @@
       <c r="R5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="220"/>
+      <c r="S5" s="243"/>
       <c r="T5" s="50" t="s">
         <v>18</v>
       </c>
@@ -27385,6 +27145,21 @@
     <sortCondition descending="1" ref="I21:I126"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="M2:X2"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -27396,21 +27171,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="M2:X2"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
